--- a/bilecik_kultur_data.xlsx
+++ b/bilecik_kultur_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="116">
   <si>
     <t>metin</t>
   </si>
@@ -544,13 +544,40 @@
   </si>
   <si>
     <t>Gelin inek sağarken yellenir, utanıp ineğe gelinlik giydirir; oğlan evden kaçar ama gittiği yerde güneşi kalburla taşıyanları görünce köyüne geri döner.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=x-F7B1QVEII</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2TyIKM9-oZo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=Qswzk4eGPJg </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rMrgTCOLnNs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-5w8A2LK950</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=x53ZI770W_4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lYWUwy_3_yU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AmvVawNlZ4A</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OIdL1xAMWVs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -580,6 +607,14 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="162"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -614,10 +649,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
@@ -628,8 +664,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Köprü" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -910,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -995,7 +1035,9 @@
       <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="4" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="262.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -1010,7 +1052,9 @@
       <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="4" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="193.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
@@ -1025,7 +1069,9 @@
       <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="4" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="262.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
@@ -1040,7 +1086,9 @@
       <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="4" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="180" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
@@ -1055,7 +1103,9 @@
       <c r="D9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="4" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="180" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
@@ -1070,7 +1120,9 @@
       <c r="D10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="4" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="152.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
@@ -1085,7 +1137,9 @@
       <c r="D11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="4" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="221.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
@@ -1115,7 +1169,9 @@
       <c r="D13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="4" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="221.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
@@ -1130,7 +1186,9 @@
       <c r="D14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="4" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="221.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
@@ -1145,7 +1203,9 @@
       <c r="D15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="4" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="193.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -1433,7 +1493,19 @@
       <c r="E34" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1"/>
+    <hyperlink ref="E6" r:id="rId2"/>
+    <hyperlink ref="E8" r:id="rId3"/>
+    <hyperlink ref="E9" r:id="rId4"/>
+    <hyperlink ref="E10" r:id="rId5"/>
+    <hyperlink ref="E13" r:id="rId6"/>
+    <hyperlink ref="E7" r:id="rId7"/>
+    <hyperlink ref="E14" r:id="rId8"/>
+    <hyperlink ref="E11" r:id="rId9"/>
+    <hyperlink ref="E15" r:id="rId10"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId11"/>
 </worksheet>
 </file>